--- a/data/trans_orig/P1412-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Provincia-trans_orig.xlsx
@@ -746,16 +746,16 @@
         <v>975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9035</v>
+        <v>9316</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01264888429361816</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003309143195923665</v>
+        <v>0.003306827277355178</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0306541666435014</v>
+        <v>0.03160812212112132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8032</v>
+        <v>7619</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00741729724151077</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02796116437352404</v>
+        <v>0.0265245786744941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>5859</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2653</v>
+        <v>2111</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12634</v>
+        <v>12179</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01006676910449493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004559339498161352</v>
+        <v>0.00362705226792156</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02170794959633344</v>
+        <v>0.02092743681972654</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>291010</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285703</v>
+        <v>285422</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>293763</v>
@@ -823,10 +823,10 @@
         <v>0.9873511157063818</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9693458333564993</v>
+        <v>0.9683918778788788</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9966908568040763</v>
+        <v>0.9966931727226448</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -835,7 +835,7 @@
         <v>285114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279213</v>
+        <v>279626</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>287245</v>
@@ -844,7 +844,7 @@
         <v>0.9925827027584893</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9720388356264763</v>
+        <v>0.9734754213255058</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -856,19 +856,19 @@
         <v>576124</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>569349</v>
+        <v>569804</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>579330</v>
+        <v>579872</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9899332308955051</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9782920504036664</v>
+        <v>0.9790725631802734</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9954406605018385</v>
+        <v>0.9963729477320784</v>
       </c>
     </row>
     <row r="6">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7027</v>
+        <v>7169</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003996956429878155</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01390119081610245</v>
+        <v>0.0141820508222059</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -981,19 +981,19 @@
         <v>3199</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8479</v>
+        <v>9571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006108645249908353</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001868466114309107</v>
+        <v>0.001890124673058329</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01618936204525964</v>
+        <v>0.01827267132735794</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -1002,19 +1002,19 @@
         <v>5220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12305</v>
+        <v>11478</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005071509057565736</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001963874458543607</v>
+        <v>0.001966448423063326</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01195487343811264</v>
+        <v>0.01115138348760618</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>503506</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>498500</v>
+        <v>498358</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>505527</v>
@@ -1040,7 +1040,7 @@
         <v>0.9960030435701218</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9860988091838974</v>
+        <v>0.9858179491777938</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1052,19 +1052,19 @@
         <v>520566</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>515286</v>
+        <v>514194</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>522786</v>
+        <v>522775</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9938913547500916</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9838106379547403</v>
+        <v>0.9817273286726419</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.998131533885691</v>
+        <v>0.9981098753269416</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>947</v>
@@ -1073,19 +1073,19 @@
         <v>1024072</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1016987</v>
+        <v>1017814</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1027271</v>
+        <v>1027268</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9949284909424343</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9880451265618867</v>
+        <v>0.9888486165123936</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9980361255414564</v>
+        <v>0.9980335515769366</v>
       </c>
     </row>
     <row r="9">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6787</v>
+        <v>5456</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00323069716653869</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01990182695412196</v>
+        <v>0.01599905707918738</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5186</v>
+        <v>5493</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001656575977855277</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007797197156669024</v>
+        <v>0.008258812451752173</v>
       </c>
     </row>
     <row r="11">
@@ -1253,7 +1253,7 @@
         <v>339918</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>334233</v>
+        <v>335564</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>341020</v>
@@ -1262,7 +1262,7 @@
         <v>0.9967693028334613</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9800981730458745</v>
+        <v>0.9840009429208125</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>663964</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>659880</v>
+        <v>659573</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>665066</v>
@@ -1283,7 +1283,7 @@
         <v>0.9983434240221447</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9922028028433311</v>
+        <v>0.9917411875482478</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7811</v>
+        <v>7918</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005959077477455378</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02088563987025846</v>
+        <v>0.02117269913429216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1399,19 +1399,19 @@
         <v>5276</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2058</v>
+        <v>1954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11934</v>
+        <v>11932</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01356371114545329</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005290422017224921</v>
+        <v>0.005022913593318527</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03068261821299881</v>
+        <v>0.03067752770180818</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1420,19 +1420,19 @@
         <v>7504</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3217</v>
+        <v>3177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15668</v>
+        <v>14553</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009835996432215307</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004216147922990078</v>
+        <v>0.004164695339739199</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02053685791586262</v>
+        <v>0.01907520834991581</v>
       </c>
     </row>
     <row r="14">
@@ -1449,7 +1449,7 @@
         <v>371753</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>366171</v>
+        <v>366064</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373982</v>
@@ -1458,7 +1458,7 @@
         <v>0.9940409225225446</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9791143601297416</v>
+        <v>0.9788273008657078</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1470,19 +1470,19 @@
         <v>383675</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>377017</v>
+        <v>377019</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386893</v>
+        <v>386997</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9864362888545467</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9693173817870014</v>
+        <v>0.9693224722981916</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9947095779827752</v>
+        <v>0.9949770864066815</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>708</v>
@@ -1491,19 +1491,19 @@
         <v>755429</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>747265</v>
+        <v>748380</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>759716</v>
+        <v>759756</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9901640035677847</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9794631420841375</v>
+        <v>0.9809247916500849</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9957838520770099</v>
+        <v>0.9958353046602608</v>
       </c>
     </row>
     <row r="15">
@@ -1595,19 +1595,19 @@
         <v>5559</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2045</v>
+        <v>2061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13524</v>
+        <v>14716</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02614700793805037</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009618335638236747</v>
+        <v>0.009695237834711851</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06360608745918928</v>
+        <v>0.06921561278422744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5922</v>
+        <v>4939</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004512475406969438</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02696636363717637</v>
+        <v>0.02249344632908364</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1637,19 +1637,19 @@
         <v>6550</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2310</v>
+        <v>2199</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17529</v>
+        <v>16515</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01515522340711074</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005344332733152126</v>
+        <v>0.005088078290583241</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.040557133745068</v>
+        <v>0.03821176765013971</v>
       </c>
     </row>
     <row r="17">
@@ -1666,19 +1666,19 @@
         <v>207059</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199094</v>
+        <v>197902</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210573</v>
+        <v>210557</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9738529920619496</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9363939125408105</v>
+        <v>0.9307843872157725</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9903816643617633</v>
+        <v>0.9903047621652881</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>211</v>
@@ -1687,7 +1687,7 @@
         <v>218600</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>213669</v>
+        <v>214652</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>219591</v>
@@ -1696,7 +1696,7 @@
         <v>0.9954875245930306</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9730336363628236</v>
+        <v>0.9775065536709163</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1708,19 +1708,19 @@
         <v>425659</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>414680</v>
+        <v>415694</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>429899</v>
+        <v>430010</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9848447765928893</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9594428662549322</v>
+        <v>0.9617882323498606</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9946556672668482</v>
+        <v>0.9949119217094169</v>
       </c>
     </row>
     <row r="18">
@@ -1825,19 +1825,19 @@
         <v>3151</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8412</v>
+        <v>8570</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01133001775426553</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00347320249546984</v>
+        <v>0.003447382284450964</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03024709425381215</v>
+        <v>0.03081587313224823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1846,19 +1846,19 @@
         <v>3151</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8674</v>
+        <v>8689</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00570723139515642</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001770026310590729</v>
+        <v>0.001757279136093046</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01571135436097848</v>
+        <v>0.01573882056406426</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>274945</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>269684</v>
+        <v>269526</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277130</v>
+        <v>277137</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9886699822457344</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9697529057461879</v>
+        <v>0.9691841268677522</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9965267975045302</v>
+        <v>0.996552617715549</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>526</v>
@@ -1909,19 +1909,19 @@
         <v>548926</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>543403</v>
+        <v>543388</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>551100</v>
+        <v>551107</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9942927686048436</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9842886456390217</v>
+        <v>0.9842611794359358</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9982299736894092</v>
+        <v>0.998242720863907</v>
       </c>
     </row>
     <row r="21">
@@ -2013,19 +2013,19 @@
         <v>5106</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11230</v>
+        <v>11651</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007703278932241928</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0030068404152737</v>
+        <v>0.003021550820221101</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01694409014762809</v>
+        <v>0.01757909579411956</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2034,19 +2034,19 @@
         <v>4510</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1095</v>
+        <v>1106</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10939</v>
+        <v>10623</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006509195725866558</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001579831443150291</v>
+        <v>0.001596446749333395</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01578658201789261</v>
+        <v>0.01533090685254626</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2055,19 +2055,19 @@
         <v>9616</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5120</v>
+        <v>4200</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16840</v>
+        <v>17744</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007092973649543268</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003777008534940216</v>
+        <v>0.003098366539230876</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01242197448659554</v>
+        <v>0.01308874522081672</v>
       </c>
     </row>
     <row r="23">
@@ -2084,19 +2084,19 @@
         <v>657682</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>651558</v>
+        <v>651137</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>660795</v>
+        <v>660785</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9922967210677581</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9830559098523721</v>
+        <v>0.9824209042058792</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9969931595847263</v>
+        <v>0.996978449179779</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>631</v>
@@ -2105,19 +2105,19 @@
         <v>688396</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>681967</v>
+        <v>682283</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>691811</v>
+        <v>691800</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9934908042741334</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9842134179821075</v>
+        <v>0.9846690931474532</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9984201685568497</v>
+        <v>0.9984035532506665</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1244</v>
@@ -2126,19 +2126,19 @@
         <v>1346078</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1338854</v>
+        <v>1337950</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1350574</v>
+        <v>1351494</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9929070263504567</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9875780255134045</v>
+        <v>0.9869112547791832</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9962229914650598</v>
+        <v>0.9969016334607691</v>
       </c>
     </row>
     <row r="24">
@@ -2230,19 +2230,19 @@
         <v>4326</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10883</v>
+        <v>10620</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00555228089148132</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001407724025357104</v>
+        <v>0.001413792351076658</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01396833936353592</v>
+        <v>0.0136310647479856</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2254,16 +2254,16 @@
         <v>1162</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10887</v>
+        <v>11283</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.00537994369894328</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001415052687994757</v>
+        <v>0.001415205304702614</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01325381594047849</v>
+        <v>0.01373676236869955</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2272,19 +2272,19 @@
         <v>8745</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4305</v>
+        <v>4339</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15724</v>
+        <v>17492</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005463835100423059</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002689512879647463</v>
+        <v>0.002711152419925647</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009824360424363474</v>
+        <v>0.0109293970108513</v>
       </c>
     </row>
     <row r="26">
@@ -2301,19 +2301,19 @@
         <v>774772</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>768215</v>
+        <v>768478</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>778001</v>
+        <v>777997</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9944477191085187</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9860316606364641</v>
+        <v>0.9863689352520142</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9985922759746428</v>
+        <v>0.9985862076489233</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>751</v>
@@ -2322,7 +2322,7 @@
         <v>816976</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>810508</v>
+        <v>810112</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>820233</v>
@@ -2331,10 +2331,10 @@
         <v>0.9946200563010568</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9867461840595213</v>
+        <v>0.9862632376313002</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9985849473120053</v>
+        <v>0.9985847946952974</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1464</v>
@@ -2343,19 +2343,19 @@
         <v>1591748</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1584769</v>
+        <v>1583001</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1596188</v>
+        <v>1596154</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.994536164899577</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9901756395756368</v>
+        <v>0.9890706029891486</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9973104871203526</v>
+        <v>0.9972888475800743</v>
       </c>
     </row>
     <row r="27">
@@ -2447,19 +2447,19 @@
         <v>22968</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14291</v>
+        <v>14713</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>34256</v>
+        <v>35072</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006702505971672376</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004170432431788456</v>
+        <v>0.004293645873095654</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.00999646013862643</v>
+        <v>0.01023464188048124</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>23</v>
@@ -2468,19 +2468,19 @@
         <v>24778</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>16484</v>
+        <v>16217</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>36368</v>
+        <v>36427</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006974020335402709</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004639602994534573</v>
+        <v>0.004564279721192182</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01023603320841323</v>
+        <v>0.0102525380343186</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>44</v>
@@ -2489,19 +2489,19 @@
         <v>47746</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>35777</v>
+        <v>34910</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>65283</v>
+        <v>64137</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006840717559422993</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005125836831640547</v>
+        <v>0.005001638946723603</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.009353159953865386</v>
+        <v>0.009189034475953262</v>
       </c>
     </row>
     <row r="29">
@@ -2518,19 +2518,19 @@
         <v>3403811</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3392523</v>
+        <v>3391707</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3412488</v>
+        <v>3412066</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9932974940283277</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9900035398613736</v>
+        <v>0.9897653581195188</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9958295675682117</v>
+        <v>0.9957063541269043</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3271</v>
@@ -2539,19 +2539,19 @@
         <v>3528190</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3516600</v>
+        <v>3516541</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3536484</v>
+        <v>3536751</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9930259796645973</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9897639667915867</v>
+        <v>0.9897474619656809</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9953603970054653</v>
+        <v>0.9954357202788078</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6459</v>
@@ -2560,19 +2560,19 @@
         <v>6932001</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6914464</v>
+        <v>6915610</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6943970</v>
+        <v>6944837</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9931592824405771</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9906468400461346</v>
+        <v>0.9908109655240467</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9948741631683594</v>
+        <v>0.9949983610532763</v>
       </c>
     </row>
     <row r="30">
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6170</v>
+        <v>5656</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004430434146141435</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0210031057586718</v>
+        <v>0.01925399284408069</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5236</v>
+        <v>6098</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003526879326123538</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01813581093604256</v>
+        <v>0.02112349612110393</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8837</v>
+        <v>7971</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003982579880871359</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01517102725881394</v>
+        <v>0.01368551199454028</v>
       </c>
     </row>
     <row r="5">
@@ -2979,7 +2979,7 @@
         <v>292460</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287591</v>
+        <v>288105</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>293761</v>
@@ -2988,7 +2988,7 @@
         <v>0.9955695658538586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9789968942413291</v>
+        <v>0.9807460071559198</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3000,7 +3000,7 @@
         <v>287685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283467</v>
+        <v>282605</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>288703</v>
@@ -3009,7 +3009,7 @@
         <v>0.9964731206738765</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9818641890639574</v>
+        <v>0.9788765038788961</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3021,7 +3021,7 @@
         <v>580144</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>573627</v>
+        <v>574493</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>582464</v>
@@ -3030,7 +3030,7 @@
         <v>0.9960174201191286</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.984828972741186</v>
+        <v>0.9863144880054605</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -3125,19 +3125,19 @@
         <v>5107</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1992</v>
+        <v>1963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11438</v>
+        <v>11043</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01016218195150922</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003962955792283179</v>
+        <v>0.003906823027934979</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02275813842401323</v>
+        <v>0.02197298471467921</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -3146,19 +3146,19 @@
         <v>3192</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>997</v>
+        <v>981</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9066</v>
+        <v>8736</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006103132014424707</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001906062918190754</v>
+        <v>0.001875953698524705</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01733224894126016</v>
+        <v>0.01670073619349165</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -3167,19 +3167,19 @@
         <v>8300</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3378</v>
+        <v>4072</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15862</v>
+        <v>16298</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008092075484483317</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003293192282268861</v>
+        <v>0.00396992445364916</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01546481309930271</v>
+        <v>0.01588996274703829</v>
       </c>
     </row>
     <row r="8">
@@ -3196,19 +3196,19 @@
         <v>497468</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>491137</v>
+        <v>491532</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500583</v>
+        <v>500612</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9898378180484908</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9772418615759868</v>
+        <v>0.9780270152853209</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9960370442077169</v>
+        <v>0.996093176972065</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>481</v>
@@ -3217,19 +3217,19 @@
         <v>519892</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>514018</v>
+        <v>514348</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>522087</v>
+        <v>522103</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9938968679855753</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9826677510587404</v>
+        <v>0.9832992638065085</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9980939370818093</v>
+        <v>0.9981240463014753</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>951</v>
@@ -3238,19 +3238,19 @@
         <v>1017359</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1009797</v>
+        <v>1009361</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1022281</v>
+        <v>1021587</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9919079245155167</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9845351869006972</v>
+        <v>0.9841100372529614</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9967068077177311</v>
+        <v>0.9960300755463508</v>
       </c>
     </row>
     <row r="9">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5334</v>
+        <v>5565</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004805658781003777</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0167422694363299</v>
+        <v>0.01746903933858467</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5409</v>
+        <v>4813</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002337724018646254</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00825952887990556</v>
+        <v>0.007349490506191509</v>
       </c>
     </row>
     <row r="11">
@@ -3405,7 +3405,7 @@
         <v>317034</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313231</v>
+        <v>313000</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -3414,7 +3414,7 @@
         <v>0.9951943412189962</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9832577305636701</v>
+        <v>0.9825309606614154</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3439,7 +3439,7 @@
         <v>653343</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>649465</v>
+        <v>650061</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>654874</v>
@@ -3448,7 +3448,7 @@
         <v>0.9976622759813537</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9917404711200943</v>
+        <v>0.9926505094938085</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3543,19 +3543,19 @@
         <v>4732</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1669</v>
+        <v>1685</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10148</v>
+        <v>10646</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01279051830069006</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0045125734421065</v>
+        <v>0.004553197760703087</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02742947435167728</v>
+        <v>0.02877495698247945</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3564,19 +3564,19 @@
         <v>3409</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8757</v>
+        <v>9065</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008802702418704114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002420981642471174</v>
+        <v>0.002396448005464766</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0226116348056274</v>
+        <v>0.02340585296239939</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -3585,19 +3585,19 @@
         <v>8141</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3769</v>
+        <v>3344</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15277</v>
+        <v>15703</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01075100767392564</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004976910016904909</v>
+        <v>0.004416600672156185</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02017398348277894</v>
+        <v>0.02073695447042382</v>
       </c>
     </row>
     <row r="14">
@@ -3614,19 +3614,19 @@
         <v>365232</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>359816</v>
+        <v>359318</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>368295</v>
+        <v>368279</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9872094816993099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9725705256483226</v>
+        <v>0.9712250430175199</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9954874265578936</v>
+        <v>0.9954468022392969</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>355</v>
@@ -3635,19 +3635,19 @@
         <v>383874</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>378526</v>
+        <v>378218</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386345</v>
+        <v>386355</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9911972975812959</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9773883651943727</v>
+        <v>0.9765941470375998</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9975790183575288</v>
+        <v>0.9976035519945352</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>704</v>
@@ -3656,19 +3656,19 @@
         <v>749106</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>741970</v>
+        <v>741544</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753478</v>
+        <v>753903</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9892489923260743</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.979826016517221</v>
+        <v>0.979263045529576</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9950230899830951</v>
+        <v>0.9955833993278436</v>
       </c>
     </row>
     <row r="15">
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3326</v>
+        <v>4648</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003853993282163581</v>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.015745402735565</v>
+        <v>0.02200523749573294</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4537</v>
+        <v>4452</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001893971986652264</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01055534950316618</v>
+        <v>0.01035712225172952</v>
       </c>
     </row>
     <row r="17">
@@ -3823,7 +3823,7 @@
         <v>210407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>207895</v>
+        <v>206573</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -3832,7 +3832,7 @@
         <v>0.9961460067178364</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.984254597264435</v>
+        <v>0.9779947625042672</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3857,7 +3857,7 @@
         <v>428994</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>425271</v>
+        <v>425356</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>429808</v>
@@ -3866,7 +3866,7 @@
         <v>0.9981060280133477</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9894446504968342</v>
+        <v>0.9896428777482709</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6471</v>
+        <v>6486</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006768137843269538</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02459243426000789</v>
+        <v>0.02465140008532959</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7218</v>
+        <v>5994</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003321011807192168</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01345985244288849</v>
+        <v>0.01117712762256657</v>
       </c>
     </row>
     <row r="20">
@@ -4024,7 +4024,7 @@
         <v>261342</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>256652</v>
+        <v>256637</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263123</v>
@@ -4033,7 +4033,7 @@
         <v>0.9932318621567304</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9754075657399921</v>
+        <v>0.9753485999146705</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4058,7 +4058,7 @@
         <v>534457</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>529020</v>
+        <v>530244</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>536238</v>
@@ -4067,7 +4067,7 @@
         <v>0.9966789881928079</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9865401475571128</v>
+        <v>0.9888228723774328</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -4162,19 +4162,19 @@
         <v>5084</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12410</v>
+        <v>13537</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007743412477646291</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001841209078359209</v>
+        <v>0.001832915571885472</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01890163667412216</v>
+        <v>0.02061847282611224</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4186,16 +4186,16 @@
         <v>3476</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16122</v>
+        <v>16277</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01194470563106277</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005027828016229672</v>
+        <v>0.005027855941773156</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02332129416531549</v>
+        <v>0.02354621163904472</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -4204,19 +4204,19 @@
         <v>13341</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7224</v>
+        <v>6686</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23047</v>
+        <v>22054</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009898195611455012</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0053593078560073</v>
+        <v>0.004960546485511991</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0170988912862741</v>
+        <v>0.01636206440198354</v>
       </c>
     </row>
     <row r="23">
@@ -4233,19 +4233,19 @@
         <v>651474</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>644148</v>
+        <v>643021</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>655349</v>
+        <v>655355</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9922565875223537</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9810983633258777</v>
+        <v>0.9793815271738876</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9981587909216408</v>
+        <v>0.9981670844281145</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>639</v>
@@ -4254,7 +4254,7 @@
         <v>683037</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>675172</v>
+        <v>675017</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>687818</v>
@@ -4263,10 +4263,10 @@
         <v>0.9880552943689372</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9766787058346844</v>
+        <v>0.9764537883609553</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9949721719837703</v>
+        <v>0.9949721440582269</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1215</v>
@@ -4275,19 +4275,19 @@
         <v>1334511</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1324805</v>
+        <v>1325798</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1340628</v>
+        <v>1341166</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.990101804388545</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9829011087137258</v>
+        <v>0.9836379355980165</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9946406921439926</v>
+        <v>0.995039453514488</v>
       </c>
     </row>
     <row r="24">
@@ -4379,19 +4379,19 @@
         <v>5804</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2507</v>
+        <v>2112</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12170</v>
+        <v>12187</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007454332158092513</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003219945279850277</v>
+        <v>0.002713021254124435</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01563073507626359</v>
+        <v>0.01565319288592348</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4400,19 +4400,19 @@
         <v>3306</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8937</v>
+        <v>8858</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004001748328275013</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001282127995136815</v>
+        <v>0.001281182972622496</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01081695005049467</v>
+        <v>0.01072124147118958</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -4421,19 +4421,19 @@
         <v>9110</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4173</v>
+        <v>4077</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16269</v>
+        <v>16642</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005676852280250201</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002600216306501229</v>
+        <v>0.002540303890999893</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01013808917246242</v>
+        <v>0.01037051545031016</v>
       </c>
     </row>
     <row r="26">
@@ -4450,19 +4450,19 @@
         <v>772779</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>766413</v>
+        <v>766396</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>776076</v>
+        <v>776471</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9925456678419075</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9843692649237367</v>
+        <v>0.984346807114077</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9967800547201497</v>
+        <v>0.9972869787458756</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>752</v>
@@ -4471,19 +4471,19 @@
         <v>822861</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>817230</v>
+        <v>817309</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>825108</v>
+        <v>825109</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.995998251671725</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9891830499495053</v>
+        <v>0.9892787585288103</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9987178720048632</v>
+        <v>0.9987188170273774</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1496</v>
@@ -4492,19 +4492,19 @@
         <v>1595640</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1588481</v>
+        <v>1588108</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1600577</v>
+        <v>1600673</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9943231477197498</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9898619108275375</v>
+        <v>0.9896294845496898</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9973997836934988</v>
+        <v>0.9974596961090001</v>
       </c>
     </row>
     <row r="27">
@@ -4596,19 +4596,19 @@
         <v>26154</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>17068</v>
+        <v>16796</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38917</v>
+        <v>38114</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007705277013035545</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00502843061707087</v>
+        <v>0.004948112413642336</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01146527210404807</v>
+        <v>0.01122857982533052</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>17</v>
@@ -4617,19 +4617,19 @@
         <v>19183</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11614</v>
+        <v>10408</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>30255</v>
+        <v>30052</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005412045929166565</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003276703467563192</v>
+        <v>0.002936232799719968</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.00853567851896409</v>
+        <v>0.008478363341387284</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>43</v>
@@ -4638,19 +4638,19 @@
         <v>45338</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>32622</v>
+        <v>31596</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>60587</v>
+        <v>59960</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0065338430882265</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004701321920392155</v>
+        <v>0.004553402413509961</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.008731547006761977</v>
+        <v>0.008641182615515011</v>
       </c>
     </row>
     <row r="29">
@@ -4667,19 +4667,19 @@
         <v>3368196</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3355433</v>
+        <v>3356236</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3377282</v>
+        <v>3377554</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9922947229869644</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9885347278959521</v>
+        <v>0.98877142017467</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9949715693829292</v>
+        <v>0.9950518875863578</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3321</v>
@@ -4688,19 +4688,19 @@
         <v>3525359</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3514287</v>
+        <v>3514490</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3532928</v>
+        <v>3534134</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9945879540708334</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9914643214810359</v>
+        <v>0.9915216366586129</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9967232965324369</v>
+        <v>0.9970637672002801</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6526</v>
@@ -4709,19 +4709,19 @@
         <v>6893554</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6878305</v>
+        <v>6878932</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6906270</v>
+        <v>6907296</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9934661569117735</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.991268452993238</v>
+        <v>0.9913588173844849</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9952986780796078</v>
+        <v>0.99544659758649</v>
       </c>
     </row>
     <row r="30">
@@ -5060,16 +5060,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4945</v>
+        <v>5605</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.004914338810085532</v>
+        <v>0.004914338810085533</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01550882577171293</v>
+        <v>0.01758049476316723</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2410</v>
+        <v>2323</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001482992793694545</v>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007623780298046368</v>
+        <v>0.00734922575845333</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -5102,16 +5102,16 @@
         <v>467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6297</v>
+        <v>5358</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003206190583558738</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007362883652550992</v>
+        <v>0.0007362354098517115</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009918367095061019</v>
+        <v>0.008438371776176774</v>
       </c>
     </row>
     <row r="5">
@@ -5128,16 +5128,16 @@
         <v>317278</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>313900</v>
+        <v>313240</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9950856611899144</v>
+        <v>0.9950856611899146</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9844911742282866</v>
+        <v>0.9824195052368326</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -5149,16 +5149,16 @@
         <v>315592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>313651</v>
+        <v>313738</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>316061</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9985170072063054</v>
+        <v>0.9985170072063055</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9923762197019534</v>
+        <v>0.9926507742415467</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -5170,7 +5170,7 @@
         <v>632870</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>628609</v>
+        <v>629548</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>634439</v>
@@ -5179,10 +5179,10 @@
         <v>0.9967938094164414</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9900816329049391</v>
+        <v>0.9915616282238233</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9992637116347449</v>
+        <v>0.9992637645901483</v>
       </c>
     </row>
     <row r="6">
@@ -5274,19 +5274,19 @@
         <v>3781</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8643</v>
+        <v>9720</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007156386931061174</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001757037643921939</v>
+        <v>0.001768732031646856</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01636041212987361</v>
+        <v>0.01839941192937753</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5295,19 +5295,19 @@
         <v>2440</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5867</v>
+        <v>6122</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004476350602767873</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001112987475473294</v>
+        <v>0.001126893894324192</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0107638662084529</v>
+        <v>0.01123053294257145</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -5316,19 +5316,19 @@
         <v>6221</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2514</v>
+        <v>2927</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11806</v>
+        <v>12812</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.005795416890103948</v>
+        <v>0.005795416890103947</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002341723575828882</v>
+        <v>0.002727267538790184</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0109984602214664</v>
+        <v>0.01193633346907544</v>
       </c>
     </row>
     <row r="8">
@@ -5345,19 +5345,19 @@
         <v>524523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>519661</v>
+        <v>518584</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>527376</v>
+        <v>527370</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9928436130689388</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9836395878701264</v>
+        <v>0.9816005880706224</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9982429623560782</v>
+        <v>0.998231267968353</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>711</v>
@@ -5366,19 +5366,19 @@
         <v>542647</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>539220</v>
+        <v>538965</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>544480</v>
+        <v>544473</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.995523649397232</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9892361337915473</v>
+        <v>0.9887694670574285</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9988870125245267</v>
+        <v>0.9988731061056757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1087</v>
@@ -5387,19 +5387,19 @@
         <v>1067170</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1061585</v>
+        <v>1060579</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1070877</v>
+        <v>1070464</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9942045831098961</v>
+        <v>0.9942045831098959</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9890015397785339</v>
+        <v>0.9880636665309248</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9976582764241713</v>
+        <v>0.9972727324612098</v>
       </c>
     </row>
     <row r="9">
@@ -5491,19 +5491,19 @@
         <v>4617</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2014</v>
+        <v>1741</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9280</v>
+        <v>9409</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01461032592650336</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006375110093176212</v>
+        <v>0.005509276240847823</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02936688414404429</v>
+        <v>0.02977663357188618</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5512,19 +5512,19 @@
         <v>3736</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1577</v>
+        <v>1440</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7649</v>
+        <v>7521</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01048302007721371</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004424133035666891</v>
+        <v>0.004040057530433179</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0214632024516616</v>
+        <v>0.02110378657215461</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -5533,19 +5533,19 @@
         <v>8353</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4545</v>
+        <v>4721</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13627</v>
+        <v>14082</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01242271440549512</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006759099181152065</v>
+        <v>0.007021199249327812</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02026644380018415</v>
+        <v>0.02094364206502422</v>
       </c>
     </row>
     <row r="11">
@@ -5562,19 +5562,19 @@
         <v>311376</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>306713</v>
+        <v>306584</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>313979</v>
+        <v>314252</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9853896740734968</v>
+        <v>0.9853896740734965</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9706331158559556</v>
+        <v>0.9702233664281139</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9936248899068236</v>
+        <v>0.994490723759152</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>529</v>
@@ -5583,19 +5583,19 @@
         <v>352645</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>348732</v>
+        <v>348860</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>354804</v>
+        <v>354941</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9895169799227863</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9785367975483387</v>
+        <v>0.9788962134278451</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9955758669643331</v>
+        <v>0.9959599424695668</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>882</v>
@@ -5604,19 +5604,19 @@
         <v>664022</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>658748</v>
+        <v>658293</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>667830</v>
+        <v>667654</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.987577285594505</v>
+        <v>0.9875772855945049</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9797335561998159</v>
+        <v>0.9790563579349757</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.993240900818848</v>
+        <v>0.9929788007506722</v>
       </c>
     </row>
     <row r="12">
@@ -5708,19 +5708,19 @@
         <v>6845</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16639</v>
+        <v>14957</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01834285555185953</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008530754666246211</v>
+        <v>0.008519201862086196</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04459118170138747</v>
+        <v>0.0400845595985784</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2271</v>
+        <v>2363</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001020994971457569</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.005382504781707174</v>
+        <v>0.005599406766936848</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -5750,19 +5750,19 @@
         <v>7275</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3492</v>
+        <v>3389</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14783</v>
+        <v>14675</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009150180808076242</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004391813989838277</v>
+        <v>0.004262178918821477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01859192134119691</v>
+        <v>0.01845631784623015</v>
       </c>
     </row>
     <row r="14">
@@ -5779,19 +5779,19 @@
         <v>366300</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>356506</v>
+        <v>358188</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369962</v>
+        <v>369966</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9816571444481406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9554088182986132</v>
+        <v>0.9599154404014212</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9914692453337538</v>
+        <v>0.9914807981379131</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>598</v>
@@ -5800,7 +5800,7 @@
         <v>421530</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>419690</v>
+        <v>419598</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>421961</v>
@@ -5809,7 +5809,7 @@
         <v>0.9989790050285424</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9946174952182936</v>
+        <v>0.9944005932330636</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5821,19 +5821,19 @@
         <v>787832</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>780324</v>
+        <v>780432</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>791615</v>
+        <v>791718</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9908498191919238</v>
+        <v>0.9908498191919237</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9814080786588031</v>
+        <v>0.9815436821537697</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9956081860101619</v>
+        <v>0.9957378210811784</v>
       </c>
     </row>
     <row r="15">
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2800</v>
+        <v>2586</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00322386291972435</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01236750243752109</v>
+        <v>0.0114224218010052</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2630</v>
+        <v>2502</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001689370265286097</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006086631684727137</v>
+        <v>0.00579065897277656</v>
       </c>
     </row>
     <row r="17">
@@ -6001,7 +6001,7 @@
         <v>225693</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>223623</v>
+        <v>223837</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>226423</v>
@@ -6010,7 +6010,7 @@
         <v>0.9967761370802758</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9876324975624785</v>
+        <v>0.9885775781989946</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -6022,7 +6022,7 @@
         <v>431357</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>429457</v>
+        <v>429585</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>432087</v>
@@ -6031,7 +6031,7 @@
         <v>0.998310629734714</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9939133683152724</v>
+        <v>0.9942093410272227</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -6126,19 +6126,19 @@
         <v>4619</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2201</v>
+        <v>2243</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8927</v>
+        <v>8498</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01706251270904185</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008131383141662941</v>
+        <v>0.0082852659422972</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03297796605709775</v>
+        <v>0.0313917646796804</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -6147,19 +6147,19 @@
         <v>1815</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4350</v>
+        <v>4219</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006899988450130178</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002355664635562024</v>
+        <v>0.002309386567375476</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01653500275332271</v>
+        <v>0.0160353551807458</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -6168,19 +6168,19 @@
         <v>6434</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3590</v>
+        <v>3638</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11042</v>
+        <v>11059</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01205366839150558</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006724749616951541</v>
+        <v>0.006814915415323821</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02068535401364353</v>
+        <v>0.02071636255444096</v>
       </c>
     </row>
     <row r="20">
@@ -6197,19 +6197,19 @@
         <v>266088</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261780</v>
+        <v>262209</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268506</v>
+        <v>268464</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9829374872909581</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9670220339429021</v>
+        <v>0.9686082353203198</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.991868616858337</v>
+        <v>0.9917147340577028</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>454</v>
@@ -6218,19 +6218,19 @@
         <v>261284</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>258749</v>
+        <v>258880</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>262479</v>
+        <v>262491</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9931000115498698</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9834649972466776</v>
+        <v>0.9839646448192536</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9976443353644381</v>
+        <v>0.9976906134326246</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>816</v>
@@ -6239,19 +6239,19 @@
         <v>527372</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>522764</v>
+        <v>522747</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>530216</v>
+        <v>530168</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9879463316084947</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9793146459863562</v>
+        <v>0.9792836374455598</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9932752503830482</v>
+        <v>0.9931850845846762</v>
       </c>
     </row>
     <row r="21">
@@ -6343,19 +6343,19 @@
         <v>7971</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3642</v>
+        <v>3886</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15903</v>
+        <v>15779</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01111115007967813</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005076990495017386</v>
+        <v>0.00541650734542326</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02216728275903179</v>
+        <v>0.0219942355918892</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -6364,19 +6364,19 @@
         <v>6790</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3380</v>
+        <v>3397</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12628</v>
+        <v>12472</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008818433322612203</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004389642462617797</v>
+        <v>0.004411481384553087</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0164003185116021</v>
+        <v>0.01619857412847694</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -6385,19 +6385,19 @@
         <v>14761</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9639</v>
+        <v>9308</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23609</v>
+        <v>22363</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009924301730628663</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00648039962659083</v>
+        <v>0.006258122291773396</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01587323149976788</v>
+        <v>0.0150350718502824</v>
       </c>
     </row>
     <row r="23">
@@ -6414,19 +6414,19 @@
         <v>709449</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>701517</v>
+        <v>701641</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>713778</v>
+        <v>713534</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9888888499203217</v>
+        <v>0.988888849920322</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.977832717240968</v>
+        <v>0.9780057644081109</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9949230095049826</v>
+        <v>0.9945834926545769</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>947</v>
@@ -6435,19 +6435,19 @@
         <v>763165</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>757327</v>
+        <v>757483</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>766575</v>
+        <v>766558</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9911815666773878</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9835996814883978</v>
+        <v>0.9838014258715235</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9956103575373821</v>
+        <v>0.9955885186154468</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1536</v>
@@ -6456,19 +6456,19 @@
         <v>1472615</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1463767</v>
+        <v>1465013</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1477737</v>
+        <v>1478068</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9900756982693714</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9841267685002313</v>
+        <v>0.9849649281497174</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.993519600373409</v>
+        <v>0.9937418777082269</v>
       </c>
     </row>
     <row r="24">
@@ -6560,19 +6560,19 @@
         <v>3272</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9031</v>
+        <v>8520</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004099453847490108</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0009143115542752404</v>
+        <v>0.0009359648195309572</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01131542666552534</v>
+        <v>0.01067563552561211</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -6581,19 +6581,19 @@
         <v>4561</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1852</v>
+        <v>1914</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8879</v>
+        <v>9143</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005491140940722867</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002229613763981534</v>
+        <v>0.002304527380446996</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01068966466661506</v>
+        <v>0.01100728812081457</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -6602,19 +6602,19 @@
         <v>7833</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4242</v>
+        <v>4123</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13896</v>
+        <v>13979</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.00480919854855902</v>
+        <v>0.004809198548559021</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002604735465404069</v>
+        <v>0.002531704745027983</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008532197080323723</v>
+        <v>0.008583311897771853</v>
       </c>
     </row>
     <row r="26">
@@ -6631,19 +6631,19 @@
         <v>794800</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>789041</v>
+        <v>789552</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>797342</v>
+        <v>797325</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9959005461525099</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9886845733344747</v>
+        <v>0.9893243644743871</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9990856884457248</v>
+        <v>0.999064035180469</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1054</v>
@@ -6652,19 +6652,19 @@
         <v>826048</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>821730</v>
+        <v>821466</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>828757</v>
+        <v>828695</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9945088590592771</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9893103353333842</v>
+        <v>0.988992711879185</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9977703862360183</v>
+        <v>0.9976954726195529</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1812</v>
@@ -6673,19 +6673,19 @@
         <v>1620848</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1614785</v>
+        <v>1614702</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1624439</v>
+        <v>1624558</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.995190801451441</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9914678029196766</v>
+        <v>0.991416688102228</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.997395264534596</v>
+        <v>0.9974682952549719</v>
       </c>
     </row>
     <row r="27">
@@ -6777,19 +6777,19 @@
         <v>32671</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>23749</v>
+        <v>24175</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45942</v>
+        <v>45495</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009260072658825752</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006731233987816244</v>
+        <v>0.006851925036920759</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01302156050044997</v>
+        <v>0.0128947921508043</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>37</v>
@@ -6798,19 +6798,19 @@
         <v>20972</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14374</v>
+        <v>15081</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29218</v>
+        <v>28346</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005623055588300566</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003854078814197794</v>
+        <v>0.004043609608884344</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.007834197100607449</v>
+        <v>0.00760035676228193</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>80</v>
@@ -6819,19 +6819,19 @@
         <v>53643</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>44126</v>
+        <v>42796</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>69328</v>
+        <v>68993</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.007391094912388612</v>
+        <v>0.007391094912388611</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006079877791644498</v>
+        <v>0.00589654893317487</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.009552261817480871</v>
+        <v>0.009506170074070844</v>
       </c>
     </row>
     <row r="29">
@@ -6848,19 +6848,19 @@
         <v>3495481</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3482210</v>
+        <v>3482657</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3504403</v>
+        <v>3503977</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9907399273411743</v>
+        <v>0.9907399273411744</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.98697843949955</v>
+        <v>0.9871052078491958</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9932687660121838</v>
+        <v>0.9931480749630793</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5318</v>
@@ -6869,19 +6869,19 @@
         <v>3708605</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3700359</v>
+        <v>3701231</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3715203</v>
+        <v>3714496</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9943769444116994</v>
+        <v>0.9943769444116995</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.992165802899392</v>
+        <v>0.9923996432377179</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9961459211858021</v>
+        <v>0.9959563903911155</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8647</v>
@@ -6890,19 +6890,19 @@
         <v>7204086</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7188401</v>
+        <v>7188736</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7213603</v>
+        <v>7214933</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9926089050876113</v>
+        <v>0.9926089050876112</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9904477381825194</v>
+        <v>0.9904938299259297</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9939201222083559</v>
+        <v>0.9941034510668254</v>
       </c>
     </row>
     <row r="30">
